--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Il12a-Il12rb2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Il12a-Il12rb2.xlsx
@@ -549,10 +549,10 @@
         <v>0.295151</v>
       </c>
       <c r="I2">
-        <v>0.03547050568042931</v>
+        <v>0.07901576910072249</v>
       </c>
       <c r="J2">
-        <v>0.03547050568042931</v>
+        <v>0.07901576910072249</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.1352486666666667</v>
+        <v>0.4468086666666666</v>
       </c>
       <c r="N2">
-        <v>0.4057460000000001</v>
+        <v>1.340426</v>
       </c>
       <c r="O2">
-        <v>0.02878782923011966</v>
+        <v>0.1280124579567358</v>
       </c>
       <c r="P2">
-        <v>0.02878782923011965</v>
+        <v>0.1280124579567358</v>
       </c>
       <c r="Q2">
-        <v>0.01330625973844445</v>
+        <v>0.0439586749251111</v>
       </c>
       <c r="R2">
-        <v>0.119756337646</v>
+        <v>0.3956280743259999</v>
       </c>
       <c r="S2">
-        <v>0.001021118860234188</v>
+        <v>0.01011500281992538</v>
       </c>
       <c r="T2">
-        <v>0.001021118860234188</v>
+        <v>0.01011500281992538</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -611,10 +611,10 @@
         <v>0.295151</v>
       </c>
       <c r="I3">
-        <v>0.03547050568042931</v>
+        <v>0.07901576910072249</v>
       </c>
       <c r="J3">
-        <v>0.03547050568042931</v>
+        <v>0.07901576910072249</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,10 +629,10 @@
         <v>1.662749</v>
       </c>
       <c r="O3">
-        <v>0.1179726584231323</v>
+        <v>0.1587947312683464</v>
       </c>
       <c r="P3">
-        <v>0.1179726584231323</v>
+        <v>0.1587947312683464</v>
       </c>
       <c r="Q3">
         <v>0.05452911445544444</v>
@@ -641,10 +641,10 @@
         <v>0.490762030099</v>
       </c>
       <c r="S3">
-        <v>0.00418454985073306</v>
+        <v>0.01254728782031094</v>
       </c>
       <c r="T3">
-        <v>0.00418454985073306</v>
+        <v>0.01254728782031094</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -673,10 +673,10 @@
         <v>0.295151</v>
       </c>
       <c r="I4">
-        <v>0.03547050568042931</v>
+        <v>0.07901576910072249</v>
       </c>
       <c r="J4">
-        <v>0.03547050568042931</v>
+        <v>0.07901576910072249</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.414611333333333</v>
+        <v>1.022202333333333</v>
       </c>
       <c r="N4">
-        <v>4.243834</v>
+        <v>3.066607</v>
       </c>
       <c r="O4">
-        <v>0.3011015967451943</v>
+        <v>0.2928650292200627</v>
       </c>
       <c r="P4">
-        <v>0.3011015967451943</v>
+        <v>0.2928650292200626</v>
       </c>
       <c r="Q4">
-        <v>0.1391746498815555</v>
+        <v>0.1005680136285555</v>
       </c>
       <c r="R4">
-        <v>1.252571848934</v>
+        <v>0.9051121226569999</v>
       </c>
       <c r="S4">
-        <v>0.01068022589773675</v>
+        <v>0.02314095552652882</v>
       </c>
       <c r="T4">
-        <v>0.01068022589773675</v>
+        <v>0.02314095552652881</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -735,10 +735,10 @@
         <v>0.295151</v>
       </c>
       <c r="I5">
-        <v>0.03547050568042931</v>
+        <v>0.07901576910072249</v>
       </c>
       <c r="J5">
-        <v>0.03547050568042931</v>
+        <v>0.07901576910072249</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.7827166666666666</v>
+        <v>0.3652233333333334</v>
       </c>
       <c r="N5">
-        <v>2.34815</v>
+        <v>1.09567</v>
       </c>
       <c r="O5">
-        <v>0.1666021136541222</v>
+        <v>0.1046379358572997</v>
       </c>
       <c r="P5">
-        <v>0.1666021136541222</v>
+        <v>0.1046379358572996</v>
       </c>
       <c r="Q5">
-        <v>0.07700653562777778</v>
+        <v>0.03593201068555556</v>
       </c>
       <c r="R5">
-        <v>0.69305882065</v>
+        <v>0.32338809617</v>
       </c>
       <c r="S5">
-        <v>0.005909461218740071</v>
+        <v>0.008268046978876601</v>
       </c>
       <c r="T5">
-        <v>0.00590946121874007</v>
+        <v>0.008268046978876597</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -797,10 +797,10 @@
         <v>0.295151</v>
       </c>
       <c r="I6">
-        <v>0.03547050568042931</v>
+        <v>0.07901576910072249</v>
       </c>
       <c r="J6">
-        <v>0.03547050568042931</v>
+        <v>0.07901576910072249</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.3838566666666667</v>
+        <v>0.5234373333333334</v>
       </c>
       <c r="N6">
-        <v>1.15157</v>
+        <v>1.570312</v>
       </c>
       <c r="O6">
-        <v>0.08170431872779743</v>
+        <v>0.1499668753657104</v>
       </c>
       <c r="P6">
-        <v>0.0817043187277974</v>
+        <v>0.1499668753657104</v>
       </c>
       <c r="Q6">
-        <v>0.03776522634111111</v>
+        <v>0.05149768412355556</v>
       </c>
       <c r="R6">
-        <v>0.33988703707</v>
+        <v>0.4634791571120001</v>
       </c>
       <c r="S6">
-        <v>0.002898093501549946</v>
+        <v>0.0118497479966538</v>
       </c>
       <c r="T6">
-        <v>0.002898093501549945</v>
+        <v>0.0118497479966538</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -859,10 +859,10 @@
         <v>0.295151</v>
       </c>
       <c r="I7">
-        <v>0.03547050568042931</v>
+        <v>0.07901576910072249</v>
       </c>
       <c r="J7">
-        <v>0.03547050568042931</v>
+        <v>0.07901576910072249</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.427436666666667</v>
+        <v>0.5784316666666666</v>
       </c>
       <c r="N7">
-        <v>4.28231</v>
+        <v>1.735295</v>
       </c>
       <c r="O7">
-        <v>0.3038314832196342</v>
+        <v>0.1657229703318451</v>
       </c>
       <c r="P7">
-        <v>0.3038314832196342</v>
+        <v>0.1657229703318451</v>
       </c>
       <c r="Q7">
-        <v>0.1404364532011111</v>
+        <v>0.05690822828277776</v>
       </c>
       <c r="R7">
-        <v>1.26392807881</v>
+        <v>0.512174054545</v>
       </c>
       <c r="S7">
-        <v>0.0107770563514353</v>
+        <v>0.01309472795842696</v>
       </c>
       <c r="T7">
-        <v>0.0107770563514353</v>
+        <v>0.01309472795842696</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,22 +909,22 @@
         <v>25</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>1.898252333333333</v>
+        <v>0.1928733333333333</v>
       </c>
       <c r="H8">
-        <v>5.694757</v>
+        <v>0.5786199999999999</v>
       </c>
       <c r="I8">
-        <v>0.684381589481874</v>
+        <v>0.1549041145619023</v>
       </c>
       <c r="J8">
-        <v>0.684381589481874</v>
+        <v>0.1549041145619023</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.1352486666666667</v>
+        <v>0.4468086666666666</v>
       </c>
       <c r="N8">
-        <v>0.4057460000000001</v>
+        <v>1.340426</v>
       </c>
       <c r="O8">
-        <v>0.02878782923011966</v>
+        <v>0.1280124579567358</v>
       </c>
       <c r="P8">
-        <v>0.02878782923011965</v>
+        <v>0.1280124579567358</v>
       </c>
       <c r="Q8">
-        <v>0.2567360970802223</v>
+        <v>0.0861774769022222</v>
       </c>
       <c r="R8">
-        <v>2.310624873722</v>
+        <v>0.7755972921199998</v>
       </c>
       <c r="S8">
-        <v>0.01970186032624205</v>
+        <v>0.01982965645268091</v>
       </c>
       <c r="T8">
-        <v>0.01970186032624204</v>
+        <v>0.01982965645268091</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,22 +971,22 @@
         <v>20</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>1.898252333333333</v>
+        <v>0.1928733333333333</v>
       </c>
       <c r="H9">
-        <v>5.694757</v>
+        <v>0.5786199999999999</v>
       </c>
       <c r="I9">
-        <v>0.684381589481874</v>
+        <v>0.1549041145619023</v>
       </c>
       <c r="J9">
-        <v>0.684381589481874</v>
+        <v>0.1549041145619023</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>1.662749</v>
       </c>
       <c r="O9">
-        <v>0.1179726584231323</v>
+        <v>0.1587947312683464</v>
       </c>
       <c r="P9">
-        <v>0.1179726584231323</v>
+        <v>0.1587947312683464</v>
       </c>
       <c r="Q9">
-        <v>1.052105722999222</v>
+        <v>0.1068999807088889</v>
       </c>
       <c r="R9">
-        <v>9.468951506993001</v>
+        <v>0.9620998263799999</v>
       </c>
       <c r="S9">
-        <v>0.08073831548702545</v>
+        <v>0.02459795724421843</v>
       </c>
       <c r="T9">
-        <v>0.08073831548702545</v>
+        <v>0.02459795724421843</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,22 +1033,22 @@
         <v>26</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>1.898252333333333</v>
+        <v>0.1928733333333333</v>
       </c>
       <c r="H10">
-        <v>5.694757</v>
+        <v>0.5786199999999999</v>
       </c>
       <c r="I10">
-        <v>0.684381589481874</v>
+        <v>0.1549041145619023</v>
       </c>
       <c r="J10">
-        <v>0.684381589481874</v>
+        <v>0.1549041145619023</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.414611333333333</v>
+        <v>1.022202333333333</v>
       </c>
       <c r="N10">
-        <v>4.243834</v>
+        <v>3.066607</v>
       </c>
       <c r="O10">
-        <v>0.3011015967451943</v>
+        <v>0.2928650292200627</v>
       </c>
       <c r="P10">
-        <v>0.3011015967451943</v>
+        <v>0.2928650292200626</v>
       </c>
       <c r="Q10">
-        <v>2.685289264259778</v>
+        <v>0.1971555713711111</v>
       </c>
       <c r="R10">
-        <v>24.167603378338</v>
+        <v>1.77440014234</v>
       </c>
       <c r="S10">
-        <v>0.2060683893760064</v>
+        <v>0.04536599803747947</v>
       </c>
       <c r="T10">
-        <v>0.2060683893760063</v>
+        <v>0.04536599803747946</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,22 +1095,22 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>1.898252333333333</v>
+        <v>0.1928733333333333</v>
       </c>
       <c r="H11">
-        <v>5.694757</v>
+        <v>0.5786199999999999</v>
       </c>
       <c r="I11">
-        <v>0.684381589481874</v>
+        <v>0.1549041145619023</v>
       </c>
       <c r="J11">
-        <v>0.684381589481874</v>
+        <v>0.1549041145619023</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.7827166666666666</v>
+        <v>0.3652233333333334</v>
       </c>
       <c r="N11">
-        <v>2.34815</v>
+        <v>1.09567</v>
       </c>
       <c r="O11">
-        <v>0.1666021136541222</v>
+        <v>0.1046379358572997</v>
       </c>
       <c r="P11">
-        <v>0.1666021136541222</v>
+        <v>0.1046379358572996</v>
       </c>
       <c r="Q11">
-        <v>1.485793738838889</v>
+        <v>0.07044184171111112</v>
       </c>
       <c r="R11">
-        <v>13.37214364955</v>
+        <v>0.6339765754</v>
       </c>
       <c r="S11">
-        <v>0.114019419353648</v>
+        <v>0.01620884680356013</v>
       </c>
       <c r="T11">
-        <v>0.114019419353648</v>
+        <v>0.01620884680356013</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,22 +1157,22 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>1.898252333333333</v>
+        <v>0.1928733333333333</v>
       </c>
       <c r="H12">
-        <v>5.694757</v>
+        <v>0.5786199999999999</v>
       </c>
       <c r="I12">
-        <v>0.684381589481874</v>
+        <v>0.1549041145619023</v>
       </c>
       <c r="J12">
-        <v>0.684381589481874</v>
+        <v>0.1549041145619023</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.3838566666666667</v>
+        <v>0.5234373333333334</v>
       </c>
       <c r="N12">
-        <v>1.15157</v>
+        <v>1.570312</v>
       </c>
       <c r="O12">
-        <v>0.08170431872779743</v>
+        <v>0.1499668753657104</v>
       </c>
       <c r="P12">
-        <v>0.0817043187277974</v>
+        <v>0.1499668753657104</v>
       </c>
       <c r="Q12">
-        <v>0.7286568131655556</v>
+        <v>0.1009571032711111</v>
       </c>
       <c r="R12">
-        <v>6.55791131849</v>
+        <v>0.90861392944</v>
       </c>
       <c r="S12">
-        <v>0.05591693151846365</v>
+        <v>0.02323048604214054</v>
       </c>
       <c r="T12">
-        <v>0.05591693151846363</v>
+        <v>0.02323048604214054</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,22 +1219,22 @@
         <v>27</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>1.898252333333333</v>
+        <v>0.1928733333333333</v>
       </c>
       <c r="H13">
-        <v>5.694757</v>
+        <v>0.5786199999999999</v>
       </c>
       <c r="I13">
-        <v>0.684381589481874</v>
+        <v>0.1549041145619023</v>
       </c>
       <c r="J13">
-        <v>0.684381589481874</v>
+        <v>0.1549041145619023</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.427436666666667</v>
+        <v>0.5784316666666666</v>
       </c>
       <c r="N13">
-        <v>4.28231</v>
+        <v>1.735295</v>
       </c>
       <c r="O13">
-        <v>0.3038314832196342</v>
+        <v>0.1657229703318451</v>
       </c>
       <c r="P13">
-        <v>0.3038314832196342</v>
+        <v>0.1657229703318451</v>
       </c>
       <c r="Q13">
-        <v>2.709634983185556</v>
+        <v>0.1115640436555555</v>
       </c>
       <c r="R13">
-        <v>24.38671484867</v>
+        <v>1.0040763929</v>
       </c>
       <c r="S13">
-        <v>0.2079366734204886</v>
+        <v>0.02567116998182288</v>
       </c>
       <c r="T13">
-        <v>0.2079366734204885</v>
+        <v>0.02567116998182288</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.7770393333333333</v>
+        <v>0.9538573333333332</v>
       </c>
       <c r="H14">
-        <v>2.331118</v>
+        <v>2.861572</v>
       </c>
       <c r="I14">
-        <v>0.2801479048376967</v>
+        <v>0.7660801163373752</v>
       </c>
       <c r="J14">
-        <v>0.2801479048376967</v>
+        <v>0.7660801163373753</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.1352486666666667</v>
+        <v>0.4468086666666666</v>
       </c>
       <c r="N14">
-        <v>0.4057460000000001</v>
+        <v>1.340426</v>
       </c>
       <c r="O14">
-        <v>0.02878782923011966</v>
+        <v>0.1280124579567358</v>
       </c>
       <c r="P14">
-        <v>0.02878782923011965</v>
+        <v>0.1280124579567358</v>
       </c>
       <c r="Q14">
-        <v>0.1050935337808889</v>
+        <v>0.4261917232968888</v>
       </c>
       <c r="R14">
-        <v>0.9458418040280001</v>
+        <v>3.835725509671999</v>
       </c>
       <c r="S14">
-        <v>0.008064850043643426</v>
+        <v>0.09806779868412953</v>
       </c>
       <c r="T14">
-        <v>0.008064850043643424</v>
+        <v>0.09806779868412951</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.7770393333333333</v>
+        <v>0.9538573333333332</v>
       </c>
       <c r="H15">
-        <v>2.331118</v>
+        <v>2.861572</v>
       </c>
       <c r="I15">
-        <v>0.2801479048376967</v>
+        <v>0.7660801163373752</v>
       </c>
       <c r="J15">
-        <v>0.2801479048376967</v>
+        <v>0.7660801163373753</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>1.662749</v>
       </c>
       <c r="O15">
-        <v>0.1179726584231323</v>
+        <v>0.1587947312683464</v>
       </c>
       <c r="P15">
-        <v>0.1179726584231323</v>
+        <v>0.1587947312683464</v>
       </c>
       <c r="Q15">
-        <v>0.4306737914868888</v>
+        <v>0.5286751090475554</v>
       </c>
       <c r="R15">
-        <v>3.876064123382</v>
+        <v>4.758075981428</v>
       </c>
       <c r="S15">
-        <v>0.03304979308537376</v>
+        <v>0.121649486203817</v>
       </c>
       <c r="T15">
-        <v>0.03304979308537375</v>
+        <v>0.121649486203817</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.7770393333333333</v>
+        <v>0.9538573333333332</v>
       </c>
       <c r="H16">
-        <v>2.331118</v>
+        <v>2.861572</v>
       </c>
       <c r="I16">
-        <v>0.2801479048376967</v>
+        <v>0.7660801163373752</v>
       </c>
       <c r="J16">
-        <v>0.2801479048376967</v>
+        <v>0.7660801163373753</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.414611333333333</v>
+        <v>1.022202333333333</v>
       </c>
       <c r="N16">
-        <v>4.243834</v>
+        <v>3.066607</v>
       </c>
       <c r="O16">
-        <v>0.3011015967451943</v>
+        <v>0.2928650292200627</v>
       </c>
       <c r="P16">
-        <v>0.3011015967451943</v>
+        <v>0.2928650292200626</v>
       </c>
       <c r="Q16">
-        <v>1.099208647379111</v>
+        <v>0.9750351918004442</v>
       </c>
       <c r="R16">
-        <v>9.892877826411999</v>
+        <v>8.775316726203998</v>
       </c>
       <c r="S16">
-        <v>0.08435298147145122</v>
+        <v>0.2243580756560544</v>
       </c>
       <c r="T16">
-        <v>0.0843529814714512</v>
+        <v>0.2243580756560544</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.7770393333333333</v>
+        <v>0.9538573333333332</v>
       </c>
       <c r="H17">
-        <v>2.331118</v>
+        <v>2.861572</v>
       </c>
       <c r="I17">
-        <v>0.2801479048376967</v>
+        <v>0.7660801163373752</v>
       </c>
       <c r="J17">
-        <v>0.2801479048376967</v>
+        <v>0.7660801163373753</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.7827166666666666</v>
+        <v>0.3652233333333334</v>
       </c>
       <c r="N17">
-        <v>2.34815</v>
+        <v>1.09567</v>
       </c>
       <c r="O17">
-        <v>0.1666021136541222</v>
+        <v>0.1046379358572997</v>
       </c>
       <c r="P17">
-        <v>0.1666021136541222</v>
+        <v>0.1046379358572996</v>
       </c>
       <c r="Q17">
-        <v>0.6082016368555555</v>
+        <v>0.3483709548044445</v>
       </c>
       <c r="R17">
-        <v>5.4738147317</v>
+        <v>3.13533859324</v>
       </c>
       <c r="S17">
-        <v>0.04667323308173416</v>
+        <v>0.08016104207486292</v>
       </c>
       <c r="T17">
-        <v>0.04667323308173415</v>
+        <v>0.08016104207486291</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.7770393333333333</v>
+        <v>0.9538573333333332</v>
       </c>
       <c r="H18">
-        <v>2.331118</v>
+        <v>2.861572</v>
       </c>
       <c r="I18">
-        <v>0.2801479048376967</v>
+        <v>0.7660801163373752</v>
       </c>
       <c r="J18">
-        <v>0.2801479048376967</v>
+        <v>0.7660801163373753</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.3838566666666667</v>
+        <v>0.5234373333333334</v>
       </c>
       <c r="N18">
-        <v>1.15157</v>
+        <v>1.570312</v>
       </c>
       <c r="O18">
-        <v>0.08170431872779743</v>
+        <v>0.1499668753657104</v>
       </c>
       <c r="P18">
-        <v>0.0817043187277974</v>
+        <v>0.1499668753657104</v>
       </c>
       <c r="Q18">
-        <v>0.2982717283622222</v>
+        <v>0.4992845389404444</v>
       </c>
       <c r="R18">
-        <v>2.68444555526</v>
+        <v>4.493560850464</v>
       </c>
       <c r="S18">
-        <v>0.02288929370778383</v>
+        <v>0.1148866413269161</v>
       </c>
       <c r="T18">
-        <v>0.02288929370778383</v>
+        <v>0.1148866413269161</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.7770393333333333</v>
+        <v>0.9538573333333332</v>
       </c>
       <c r="H19">
-        <v>2.331118</v>
+        <v>2.861572</v>
       </c>
       <c r="I19">
-        <v>0.2801479048376967</v>
+        <v>0.7660801163373752</v>
       </c>
       <c r="J19">
-        <v>0.2801479048376967</v>
+        <v>0.7660801163373753</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>1.427436666666667</v>
+        <v>0.5784316666666666</v>
       </c>
       <c r="N19">
-        <v>4.28231</v>
+        <v>1.735295</v>
       </c>
       <c r="O19">
-        <v>0.3038314832196342</v>
+        <v>0.1657229703318451</v>
       </c>
       <c r="P19">
-        <v>0.3038314832196342</v>
+        <v>0.1657229703318451</v>
       </c>
       <c r="Q19">
-        <v>1.109174435842222</v>
+        <v>0.551741287082222</v>
       </c>
       <c r="R19">
-        <v>9.98256992258</v>
+        <v>4.965671583739999</v>
       </c>
       <c r="S19">
-        <v>0.08511775344771033</v>
+        <v>0.1269570723915953</v>
       </c>
       <c r="T19">
-        <v>0.0851177534477103</v>
+        <v>0.1269570723915953</v>
       </c>
     </row>
   </sheetData>
